--- a/2em/2DES/01-bcd/aula06/dados.xlsx
+++ b/2em/2DES/01-bcd/aula06/dados.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\welli\sesi2024\2em\2DES\01-bcd\aula06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wellifabio\sesi2024\2em\2DES\01-bcd\aula06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14FEE46A-5F5B-408C-8750-4A98F0E6BC12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B19383-8E3D-48A9-989F-661DA0868DB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{18574E6B-6AAA-488A-B891-1F3493E73D08}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{18574E6B-6AAA-488A-B891-1F3493E73D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -524,17 +523,17 @@
   <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +550,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -601,7 +600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -648,7 +647,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -689,7 +688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -727,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -765,7 +764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -803,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -841,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -870,7 +869,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -899,7 +898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -928,7 +927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -954,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -980,7 +979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1023,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1057,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1091,7 +1090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1159,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1176,7 +1175,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1193,7 +1192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1244,7 +1243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1261,7 +1260,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1295,7 +1294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1329,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1351,5 +1350,6 @@
     <sortCondition ref="C2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>